--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Telephone</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>kjl</t>
+  </si>
+  <si>
+    <t>fghf</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -566,6 +569,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="0" windowWidth="24940" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="11580" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Telephone</t>
   </si>
@@ -97,13 +97,22 @@
   </si>
   <si>
     <t>fghf</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sdfd</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,13 +121,37 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,13 +163,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +519,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -504,7 +554,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -572,9 +622,25 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="11580" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
     <t>Corp-Asssoc-Trust</t>
   </si>
   <si>
-    <t>Organizing-Doc</t>
-  </si>
-  <si>
-    <t>Formation-Date</t>
-  </si>
-  <si>
-    <t>State-of-Incorp</t>
-  </si>
-  <si>
     <t>Exempt</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>FormationDate</t>
+  </si>
+  <si>
+    <t>StateofIncorp</t>
+  </si>
+  <si>
+    <t>OrganizingDoc</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -558,84 +558,84 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Telephone</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Corp-Asssoc-Trust</t>
-  </si>
-  <si>
     <t>Exempt</t>
   </si>
   <si>
@@ -106,6 +103,21 @@
   </si>
   <si>
     <t>OrganizingDoc</t>
+  </si>
+  <si>
+    <t>Corp</t>
+  </si>
+  <si>
+    <t>Unicorp</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>dfsd</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
   </si>
 </sst>
 </file>
@@ -140,18 +152,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,7 +182,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -527,21 +533,21 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -554,88 +560,100 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" t="s">
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="15920" yWindow="480" windowWidth="15020" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Telephone</t>
   </si>
@@ -36,45 +36,18 @@
     <t>Exempt</t>
   </si>
   <si>
-    <t>Activities</t>
-  </si>
-  <si>
     <t>Dissolution</t>
   </si>
   <si>
-    <t>NTEE-Code</t>
-  </si>
-  <si>
-    <t>Activities1-6</t>
-  </si>
-  <si>
     <t>Legislation</t>
   </si>
   <si>
     <t>Compensation</t>
   </si>
   <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Foreign-activity</t>
-  </si>
-  <si>
-    <t>Financial-Transactions</t>
-  </si>
-  <si>
-    <t>Unrelated-Income</t>
-  </si>
-  <si>
     <t>Bingo</t>
   </si>
   <si>
-    <t>Disaster-Relief</t>
-  </si>
-  <si>
-    <t>Charity-Status</t>
-  </si>
-  <si>
     <t>gjhkg</t>
   </si>
   <si>
@@ -118,6 +91,45 @@
   </si>
   <si>
     <t>sdfsd</t>
+  </si>
+  <si>
+    <t>Empower</t>
+  </si>
+  <si>
+    <t>NTEE</t>
+  </si>
+  <si>
+    <t>Opposing</t>
+  </si>
+  <si>
+    <t>Donate</t>
+  </si>
+  <si>
+    <t>Grants</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Unrelated</t>
+  </si>
+  <si>
+    <t>Disaster</t>
+  </si>
+  <si>
+    <t>Qualify</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>fsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sfdds</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -547,7 +559,7 @@
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -561,99 +573,144 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="480" windowWidth="15020" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>Dissolution</t>
   </si>
   <si>
-    <t>Legislation</t>
-  </si>
-  <si>
-    <t>Compensation</t>
-  </si>
-  <si>
     <t>Bingo</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>sfdds</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>Comp</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,144 +573,144 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
       </c>
       <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Telephone</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Comp</t>
+  </si>
+  <si>
+    <t>Qualify1</t>
+  </si>
+  <si>
+    <t>Qualify2</t>
+  </si>
+  <si>
+    <t>Qualify3</t>
+  </si>
+  <si>
+    <t>fdsf</t>
+  </si>
+  <si>
+    <t>sdfds</t>
   </si>
 </sst>
 </file>
@@ -181,8 +196,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -196,15 +213,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -555,11 +574,11 @@
     <col min="20" max="20" width="19.1640625" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="23" max="26" width="13.1640625" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -633,10 +652,19 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -710,6 +738,15 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -132,19 +132,19 @@
     <t>Comp</t>
   </si>
   <si>
-    <t>Qualify1</t>
-  </si>
-  <si>
-    <t>Qualify2</t>
-  </si>
-  <si>
-    <t>Qualify3</t>
-  </si>
-  <si>
     <t>fdsf</t>
   </si>
   <si>
     <t>sdfds</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -652,13 +652,13 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -738,10 +738,10 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s">
         <v>21</v>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="5980" yWindow="100" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Telephone</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>three</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
   </si>
 </sst>
 </file>
@@ -553,32 +562,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" customWidth="1"/>
-    <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="26" width="13.1640625" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="29" width="13.1640625" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -586,85 +595,94 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -672,81 +690,90 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="100" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Telephone</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Zipcode</t>
+  </si>
+  <si>
+    <t>taxyear</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
 </sst>
 </file>
@@ -562,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,21 +579,23 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="29" width="13.1640625" customWidth="1"/>
-    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+    <col min="28" max="31" width="13.1640625" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -607,82 +615,88 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -702,58 +716,58 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
         <v>33</v>
@@ -765,15 +779,21 @@
         <v>33</v>
       </c>
       <c r="AB2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/students/ssvirk/Variables Sheet.xlsx
+++ b/students/ssvirk/Variables Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Telephone</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>contact</t>
+  </si>
+  <si>
+    <t>Apart</t>
   </si>
 </sst>
 </file>
@@ -568,34 +571,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" customWidth="1"/>
-    <col min="27" max="27" width="6" customWidth="1"/>
-    <col min="28" max="31" width="13.1640625" customWidth="1"/>
-    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="32" width="13.1640625" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -603,100 +606,103 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -704,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -713,87 +719,90 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
       </c>
       <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>33</v>
       </c>
     </row>
